--- a/011/Test/Книга1.xlsx
+++ b/011/Test/Книга1.xlsx
@@ -52,12 +52,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -354,15 +361,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -417,11 +424,11 @@
         <v>75</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C9" si="0">B4/A4</f>
+        <f>B4/A4</f>
         <v>25</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D9" si="1">POWER(5,A3)</f>
+        <f>POWER(5,A3)</f>
         <v>25</v>
       </c>
     </row>
@@ -433,11 +440,11 @@
         <v>500</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C4:C12" si="0">B5/A5</f>
         <v>125</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f>POWER(5,A4)</f>
         <v>125</v>
       </c>
     </row>
@@ -453,7 +460,7 @@
         <v>625</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f>POWER(5,A5)</f>
         <v>625</v>
       </c>
     </row>
@@ -469,15 +476,15 @@
         <v>3125</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f>POWER(5,A6)</f>
         <v>3125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>109375</v>
       </c>
       <c r="C8">
@@ -485,15 +492,15 @@
         <v>15625</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D4:D9" si="1">POWER(5,A7)</f>
         <v>15625</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>625000</v>
       </c>
       <c r="C9">
@@ -506,12 +513,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <f>D10*A10</f>
         <v>3515625</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>390625</v>
       </c>
       <c r="D10">
         <f>POWER(5,A9)</f>
@@ -519,16 +530,71 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <f>D11*A11</f>
         <v>19531250</v>
+      </c>
+      <c r="C11">
+        <f>B11/A11</f>
+        <v>1953125</v>
       </c>
       <c r="D11">
         <f>POWER(5,A10)</f>
         <v>1953125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" ref="B12:B14" si="2">D12*A12</f>
+        <v>107421875</v>
+      </c>
+      <c r="C12">
+        <f>B12/A12</f>
+        <v>9765625</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D14" si="3">POWER(5,A11)</f>
+        <v>9765625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="2"/>
+        <v>585937500</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C12:C14" si="4">B13/A13</f>
+        <v>48828125</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>48828125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="2"/>
+        <v>3173828125</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>244140625</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>244140625</v>
       </c>
     </row>
   </sheetData>
